--- a/Data/Celestial Manufacturing Cooperation MKII - 2883670795/Celestial Manufacturing Cooperation MKII - 2883670795.xlsx
+++ b/Data/Celestial Manufacturing Cooperation MKII - 2883670795/Celestial Manufacturing Cooperation MKII - 2883670795.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Celestial Manufacturing Cooperation MKII - 2883670795\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zilrt\Desktop\추가\Celestial Manufacturing Cooperation MKII - 2883670795\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73AB5DA-3414-4DF2-A249-E14A2E2CCDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CE94E-2E77-455E-A45B-EE3C8B9B8953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4740,9 +4740,6 @@
     <t>주변 모든 사람의 기분을 개선하는 장치입니다.</t>
   </si>
   <si>
-    <t>화재 제어 레이더</t>
-  </si>
-  <si>
     <t>특정 유형의 CMC 포탑의 정확도를 크게 향상시킬 수 있는 대형 이중 측면 위상 배열 레이더입니다.</t>
   </si>
   <si>
@@ -6445,6 +6442,10 @@
   </si>
   <si>
     <t>치료됨</t>
+  </si>
+  <si>
+    <t>사격 통제 레이더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6814,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="F598" sqref="F598"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6847,7 +6848,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6881,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7102,7 +7103,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7153,7 +7154,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7184,10 +7185,10 @@
         <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7218,10 +7219,10 @@
         <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7238,7 +7239,7 @@
         <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7249,7 +7250,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>76</v>
@@ -7286,10 +7287,10 @@
         <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7306,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7317,7 +7318,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>85</v>
@@ -7374,7 +7375,7 @@
         <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7419,7 +7420,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>76</v>
@@ -7493,7 +7494,7 @@
         <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7510,7 +7511,7 @@
         <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7527,7 +7528,7 @@
         <v>118</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7544,7 +7545,7 @@
         <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,7 +7562,7 @@
         <v>124</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7578,7 +7579,7 @@
         <v>127</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7595,7 +7596,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7646,7 +7647,7 @@
         <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7680,7 +7681,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1568</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7697,7 +7698,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,7 +7715,7 @@
         <v>151</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7731,7 +7732,7 @@
         <v>154</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7748,7 +7749,7 @@
         <v>157</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7765,7 +7766,7 @@
         <v>160</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,7 +7783,7 @@
         <v>163</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7799,7 +7800,7 @@
         <v>166</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7816,7 +7817,7 @@
         <v>169</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7833,7 +7834,7 @@
         <v>172</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7850,7 +7851,7 @@
         <v>175</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7867,7 +7868,7 @@
         <v>178</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7884,7 +7885,7 @@
         <v>182</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7901,7 +7902,7 @@
         <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7918,7 +7919,7 @@
         <v>188</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7935,7 +7936,7 @@
         <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7952,7 +7953,7 @@
         <v>193</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -7969,7 +7970,7 @@
         <v>185</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,7 +7987,7 @@
         <v>198</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,7 +8004,7 @@
         <v>201</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8020,7 +8021,7 @@
         <v>198</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8037,7 +8038,7 @@
         <v>201</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8054,7 +8055,7 @@
         <v>208</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8071,7 +8072,7 @@
         <v>211</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8088,7 +8089,7 @@
         <v>214</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8105,7 +8106,7 @@
         <v>217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8122,7 +8123,7 @@
         <v>220</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8139,7 +8140,7 @@
         <v>217</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8156,7 +8157,7 @@
         <v>225</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,7 +8174,7 @@
         <v>228</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8190,7 +8191,7 @@
         <v>231</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8207,7 +8208,7 @@
         <v>234</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8224,7 +8225,7 @@
         <v>237</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8241,7 +8242,7 @@
         <v>217</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8258,7 +8259,7 @@
         <v>242</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8275,7 +8276,7 @@
         <v>217</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8292,7 +8293,7 @@
         <v>247</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8309,7 +8310,7 @@
         <v>185</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8326,7 +8327,7 @@
         <v>242</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,7 +8344,7 @@
         <v>217</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8360,7 +8361,7 @@
         <v>256</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8377,7 +8378,7 @@
         <v>259</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8394,7 +8395,7 @@
         <v>262</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8411,7 +8412,7 @@
         <v>265</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8428,7 +8429,7 @@
         <v>268</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8445,7 +8446,7 @@
         <v>271</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8462,7 +8463,7 @@
         <v>274</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8479,7 +8480,7 @@
         <v>277</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,7 +8497,7 @@
         <v>280</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8513,7 +8514,7 @@
         <v>283</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8530,7 +8531,7 @@
         <v>286</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8547,7 +8548,7 @@
         <v>289</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -8564,7 +8565,7 @@
         <v>292</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -8581,7 +8582,7 @@
         <v>295</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -8598,7 +8599,7 @@
         <v>298</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -8615,7 +8616,7 @@
         <v>301</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -8632,7 +8633,7 @@
         <v>304</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -8649,7 +8650,7 @@
         <v>307</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -8666,7 +8667,7 @@
         <v>310</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -8683,7 +8684,7 @@
         <v>313</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -8700,7 +8701,7 @@
         <v>316</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -8717,7 +8718,7 @@
         <v>316</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -8734,7 +8735,7 @@
         <v>321</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -8751,7 +8752,7 @@
         <v>324</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -8768,7 +8769,7 @@
         <v>327</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -8785,7 +8786,7 @@
         <v>330</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -8802,7 +8803,7 @@
         <v>333</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -8819,7 +8820,7 @@
         <v>336</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,7 +8837,7 @@
         <v>339</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -8853,7 +8854,7 @@
         <v>342</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -8870,7 +8871,7 @@
         <v>345</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -8887,7 +8888,7 @@
         <v>348</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -8904,7 +8905,7 @@
         <v>351</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -8921,7 +8922,7 @@
         <v>354</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -8938,7 +8939,7 @@
         <v>354</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8972,7 +8973,7 @@
         <v>363</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -8989,7 +8990,7 @@
         <v>366</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -9006,7 +9007,7 @@
         <v>369</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -9023,7 +9024,7 @@
         <v>372</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -9040,7 +9041,7 @@
         <v>375</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -9057,7 +9058,7 @@
         <v>378</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -9074,7 +9075,7 @@
         <v>381</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -9091,7 +9092,7 @@
         <v>384</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -9108,7 +9109,7 @@
         <v>387</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -9125,7 +9126,7 @@
         <v>390</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -9142,7 +9143,7 @@
         <v>393</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -9159,7 +9160,7 @@
         <v>396</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -9176,7 +9177,7 @@
         <v>399</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -9193,7 +9194,7 @@
         <v>402</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -9210,7 +9211,7 @@
         <v>405</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -9227,7 +9228,7 @@
         <v>408</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -9244,7 +9245,7 @@
         <v>411</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,7 +9262,7 @@
         <v>414</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -9278,7 +9279,7 @@
         <v>417</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -9295,7 +9296,7 @@
         <v>420</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -9312,7 +9313,7 @@
         <v>423</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -9329,7 +9330,7 @@
         <v>426</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -9346,7 +9347,7 @@
         <v>429</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,7 +9364,7 @@
         <v>432</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -9380,7 +9381,7 @@
         <v>435</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -9397,7 +9398,7 @@
         <v>438</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -9414,7 +9415,7 @@
         <v>441</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -9431,7 +9432,7 @@
         <v>444</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -9448,7 +9449,7 @@
         <v>447</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -9465,7 +9466,7 @@
         <v>450</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -9482,7 +9483,7 @@
         <v>453</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -9499,7 +9500,7 @@
         <v>456</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -9516,7 +9517,7 @@
         <v>459</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -9533,7 +9534,7 @@
         <v>462</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -9550,7 +9551,7 @@
         <v>465</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -9567,7 +9568,7 @@
         <v>468</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -9584,7 +9585,7 @@
         <v>471</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -9601,7 +9602,7 @@
         <v>474</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -9618,7 +9619,7 @@
         <v>477</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -9635,7 +9636,7 @@
         <v>480</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -9652,7 +9653,7 @@
         <v>483</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -9669,7 +9670,7 @@
         <v>486</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -9686,7 +9687,7 @@
         <v>489</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,7 +9704,7 @@
         <v>492</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -9720,7 +9721,7 @@
         <v>495</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -9737,7 +9738,7 @@
         <v>498</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -9754,7 +9755,7 @@
         <v>501</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -9771,7 +9772,7 @@
         <v>504</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -9788,7 +9789,7 @@
         <v>507</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -9805,7 +9806,7 @@
         <v>510</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -9822,7 +9823,7 @@
         <v>513</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -9839,7 +9840,7 @@
         <v>516</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -9856,7 +9857,7 @@
         <v>519</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -9873,7 +9874,7 @@
         <v>522</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -9890,7 +9891,7 @@
         <v>525</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9907,7 +9908,7 @@
         <v>528</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -9924,7 +9925,7 @@
         <v>531</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -9941,7 +9942,7 @@
         <v>534</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -9958,7 +9959,7 @@
         <v>537</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -9975,7 +9976,7 @@
         <v>540</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -9992,7 +9993,7 @@
         <v>544</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,10 +10007,10 @@
         <v>546</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>1794</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -10026,7 +10027,7 @@
         <v>550</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -10043,7 +10044,7 @@
         <v>553</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -10060,7 +10061,7 @@
         <v>556</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -10077,7 +10078,7 @@
         <v>559</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,7 +10095,7 @@
         <v>559</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -10111,7 +10112,7 @@
         <v>564</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -10128,7 +10129,7 @@
         <v>564</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -10145,7 +10146,7 @@
         <v>569</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -10162,7 +10163,7 @@
         <v>572</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -10179,7 +10180,7 @@
         <v>575</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -10196,7 +10197,7 @@
         <v>578</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -10213,7 +10214,7 @@
         <v>581</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -10230,7 +10231,7 @@
         <v>581</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -10247,7 +10248,7 @@
         <v>247</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -10264,7 +10265,7 @@
         <v>588</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -10281,7 +10282,7 @@
         <v>588</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -10298,7 +10299,7 @@
         <v>593</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -10315,7 +10316,7 @@
         <v>596</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -10332,7 +10333,7 @@
         <v>599</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -10349,7 +10350,7 @@
         <v>602</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,7 +10367,7 @@
         <v>605</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -10383,7 +10384,7 @@
         <v>605</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -10400,7 +10401,7 @@
         <v>610</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -10417,7 +10418,7 @@
         <v>613</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -10434,7 +10435,7 @@
         <v>616</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -10451,7 +10452,7 @@
         <v>619</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -10468,7 +10469,7 @@
         <v>622</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -10485,7 +10486,7 @@
         <v>625</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -10502,7 +10503,7 @@
         <v>628</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -10519,7 +10520,7 @@
         <v>631</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -10536,7 +10537,7 @@
         <v>634</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -10553,7 +10554,7 @@
         <v>637</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -10570,7 +10571,7 @@
         <v>640</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -10587,7 +10588,7 @@
         <v>643</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -10598,13 +10599,13 @@
         <v>65</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>645</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -10615,13 +10616,13 @@
         <v>65</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -10632,13 +10633,13 @@
         <v>65</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>649</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -10655,7 +10656,7 @@
         <v>652</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -10672,7 +10673,7 @@
         <v>655</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -10689,7 +10690,7 @@
         <v>652</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -10706,7 +10707,7 @@
         <v>660</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -10723,7 +10724,7 @@
         <v>663</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -10734,13 +10735,13 @@
         <v>65</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -10751,13 +10752,13 @@
         <v>65</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>645</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -10768,13 +10769,13 @@
         <v>65</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>649</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -10791,7 +10792,7 @@
         <v>669</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -10808,7 +10809,7 @@
         <v>672</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -10825,7 +10826,7 @@
         <v>669</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -10842,7 +10843,7 @@
         <v>677</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -10856,10 +10857,10 @@
         <v>679</v>
       </c>
       <c r="E237" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>1820</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -10876,7 +10877,7 @@
         <v>645</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -10893,7 +10894,7 @@
         <v>647</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -10910,7 +10911,7 @@
         <v>649</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -10927,7 +10928,7 @@
         <v>688</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -10944,7 +10945,7 @@
         <v>691</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -10961,7 +10962,7 @@
         <v>688</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -10978,7 +10979,7 @@
         <v>696</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -10992,10 +10993,10 @@
         <v>698</v>
       </c>
       <c r="E245" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>1820</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -11012,7 +11013,7 @@
         <v>645</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -11029,7 +11030,7 @@
         <v>647</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -11046,7 +11047,7 @@
         <v>649</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -11063,7 +11064,7 @@
         <v>707</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -11080,7 +11081,7 @@
         <v>710</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -11097,7 +11098,7 @@
         <v>707</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -11114,7 +11115,7 @@
         <v>715</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -11131,7 +11132,7 @@
         <v>718</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -11148,7 +11149,7 @@
         <v>645</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -11165,7 +11166,7 @@
         <v>723</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -11182,7 +11183,7 @@
         <v>726</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -11199,7 +11200,7 @@
         <v>715</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -11216,7 +11217,7 @@
         <v>715</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -11233,7 +11234,7 @@
         <v>733</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -11250,7 +11251,7 @@
         <v>736</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11267,7 +11268,7 @@
         <v>739</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -11278,13 +11279,13 @@
         <v>65</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -11295,13 +11296,13 @@
         <v>65</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>645</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -11312,13 +11313,13 @@
         <v>65</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>649</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -11335,7 +11336,7 @@
         <v>652</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -11352,7 +11353,7 @@
         <v>747</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -11369,7 +11370,7 @@
         <v>652</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -11386,7 +11387,7 @@
         <v>752</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -11403,7 +11404,7 @@
         <v>755</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -11420,7 +11421,7 @@
         <v>758</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -11437,7 +11438,7 @@
         <v>761</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11454,7 +11455,7 @@
         <v>764</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -11471,7 +11472,7 @@
         <v>767</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -11488,7 +11489,7 @@
         <v>770</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -11505,7 +11506,7 @@
         <v>773</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -11522,7 +11523,7 @@
         <v>776</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -11539,7 +11540,7 @@
         <v>773</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -11556,7 +11557,7 @@
         <v>781</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -11573,7 +11574,7 @@
         <v>784</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -11584,13 +11585,13 @@
         <v>65</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>723</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -11601,13 +11602,13 @@
         <v>65</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>645</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -11618,13 +11619,13 @@
         <v>65</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>726</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -11641,7 +11642,7 @@
         <v>790</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -11658,7 +11659,7 @@
         <v>793</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -11675,7 +11676,7 @@
         <v>790</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -11692,7 +11693,7 @@
         <v>798</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -11709,7 +11710,7 @@
         <v>801</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -11726,7 +11727,7 @@
         <v>804</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -11743,7 +11744,7 @@
         <v>672</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -11760,7 +11761,7 @@
         <v>809</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -11777,7 +11778,7 @@
         <v>812</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -11794,7 +11795,7 @@
         <v>815</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -11811,7 +11812,7 @@
         <v>818</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -11828,7 +11829,7 @@
         <v>821</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -11845,7 +11846,7 @@
         <v>825</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11862,7 +11863,7 @@
         <v>828</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -11879,7 +11880,7 @@
         <v>831</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -11896,7 +11897,7 @@
         <v>834</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -11913,7 +11914,7 @@
         <v>837</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -11930,7 +11931,7 @@
         <v>840</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11947,7 +11948,7 @@
         <v>843</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -11964,7 +11965,7 @@
         <v>846</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -11981,7 +11982,7 @@
         <v>849</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -11998,7 +11999,7 @@
         <v>852</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -12015,7 +12016,7 @@
         <v>855</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -12032,7 +12033,7 @@
         <v>858</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -12049,7 +12050,7 @@
         <v>861</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -12066,7 +12067,7 @@
         <v>864</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -12083,7 +12084,7 @@
         <v>867</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -12100,7 +12101,7 @@
         <v>870</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -12117,7 +12118,7 @@
         <v>873</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -12131,10 +12132,10 @@
         <v>875</v>
       </c>
       <c r="E312" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F312" s="1" t="s">
         <v>1845</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -12151,7 +12152,7 @@
         <v>878</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -12168,7 +12169,7 @@
         <v>881</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -12185,7 +12186,7 @@
         <v>884</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -12202,7 +12203,7 @@
         <v>821</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -12219,7 +12220,7 @@
         <v>889</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -12236,7 +12237,7 @@
         <v>892</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -12253,7 +12254,7 @@
         <v>895</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -12270,7 +12271,7 @@
         <v>898</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -12287,7 +12288,7 @@
         <v>901</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -12304,7 +12305,7 @@
         <v>904</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -12318,10 +12319,10 @@
         <v>906</v>
       </c>
       <c r="E323" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>1855</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -12338,7 +12339,7 @@
         <v>909</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -12352,10 +12353,10 @@
         <v>911</v>
       </c>
       <c r="E325" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>1857</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -12372,7 +12373,7 @@
         <v>914</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -12389,7 +12390,7 @@
         <v>821</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -12406,7 +12407,7 @@
         <v>919</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -12423,7 +12424,7 @@
         <v>922</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -12440,7 +12441,7 @@
         <v>925</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -12457,7 +12458,7 @@
         <v>928</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -12474,7 +12475,7 @@
         <v>931</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -12491,7 +12492,7 @@
         <v>934</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -12505,10 +12506,10 @@
         <v>936</v>
       </c>
       <c r="E334" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>1866</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -12525,7 +12526,7 @@
         <v>939</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -12542,7 +12543,7 @@
         <v>942</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,7 +12560,7 @@
         <v>945</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -12576,7 +12577,7 @@
         <v>948</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -12593,7 +12594,7 @@
         <v>951</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12610,7 +12611,7 @@
         <v>954</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -12627,7 +12628,7 @@
         <v>957</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -12644,7 +12645,7 @@
         <v>960</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -12661,7 +12662,7 @@
         <v>963</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -12678,7 +12679,7 @@
         <v>966</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12692,10 +12693,10 @@
         <v>968</v>
       </c>
       <c r="E345" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F345" s="1" t="s">
         <v>1876</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -12712,7 +12713,7 @@
         <v>971</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -12729,7 +12730,7 @@
         <v>974</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -12746,7 +12747,7 @@
         <v>977</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -12763,7 +12764,7 @@
         <v>821</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12780,7 +12781,7 @@
         <v>982</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12797,7 +12798,7 @@
         <v>985</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12814,7 +12815,7 @@
         <v>988</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -12831,7 +12832,7 @@
         <v>991</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12848,7 +12849,7 @@
         <v>994</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12865,7 +12866,7 @@
         <v>997</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -12879,10 +12880,10 @@
         <v>999</v>
       </c>
       <c r="E356" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F356" s="1" t="s">
         <v>1886</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12899,7 +12900,7 @@
         <v>1002</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12916,7 +12917,7 @@
         <v>1005</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12933,7 +12934,7 @@
         <v>1008</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12950,7 +12951,7 @@
         <v>1011</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12967,7 +12968,7 @@
         <v>1014</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12984,7 +12985,7 @@
         <v>1017</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -13001,7 +13002,7 @@
         <v>1020</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -13018,7 +13019,7 @@
         <v>1023</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -13035,7 +13036,7 @@
         <v>1026</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -13052,7 +13053,7 @@
         <v>1029</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -13069,7 +13070,7 @@
         <v>1032</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -13086,7 +13087,7 @@
         <v>1035</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -13103,7 +13104,7 @@
         <v>1032</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -13120,7 +13121,7 @@
         <v>1040</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -13137,7 +13138,7 @@
         <v>1043</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -13154,7 +13155,7 @@
         <v>1046</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -13171,7 +13172,7 @@
         <v>1049</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -13188,7 +13189,7 @@
         <v>1046</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13205,7 +13206,7 @@
         <v>1040</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -13222,7 +13223,7 @@
         <v>1043</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -13239,7 +13240,7 @@
         <v>1058</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -13256,7 +13257,7 @@
         <v>1061</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -13273,7 +13274,7 @@
         <v>1058</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -13284,13 +13285,13 @@
         <v>65</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -13307,7 +13308,7 @@
         <v>1040</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -13324,7 +13325,7 @@
         <v>1043</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -13341,7 +13342,7 @@
         <v>1072</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -13358,7 +13359,7 @@
         <v>1075</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -13375,7 +13376,7 @@
         <v>1072</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -13392,7 +13393,7 @@
         <v>1040</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -13409,7 +13410,7 @@
         <v>1043</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -13426,7 +13427,7 @@
         <v>1084</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -13443,7 +13444,7 @@
         <v>1087</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -13460,7 +13461,7 @@
         <v>1084</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -13471,13 +13472,13 @@
         <v>65</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -13494,7 +13495,7 @@
         <v>1040</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -13511,7 +13512,7 @@
         <v>1043</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -13545,7 +13546,7 @@
         <v>1100</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -13579,7 +13580,7 @@
         <v>1040</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -13596,7 +13597,7 @@
         <v>1043</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -13613,7 +13614,7 @@
         <v>1109</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -13630,7 +13631,7 @@
         <v>1112</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -13647,7 +13648,7 @@
         <v>1109</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -13658,13 +13659,13 @@
         <v>65</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -13681,7 +13682,7 @@
         <v>1040</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -13698,7 +13699,7 @@
         <v>1043</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -13715,7 +13716,7 @@
         <v>1122</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -13732,7 +13733,7 @@
         <v>1125</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -13749,7 +13750,7 @@
         <v>1122</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -13760,13 +13761,13 @@
         <v>65</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -13783,7 +13784,7 @@
         <v>1040</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -13800,7 +13801,7 @@
         <v>1043</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -13817,7 +13818,7 @@
         <v>1136</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -13834,7 +13835,7 @@
         <v>1139</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -13851,7 +13852,7 @@
         <v>1136</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -13868,7 +13869,7 @@
         <v>1040</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -13885,7 +13886,7 @@
         <v>1043</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -13902,7 +13903,7 @@
         <v>1148</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -13919,7 +13920,7 @@
         <v>1151</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -13936,7 +13937,7 @@
         <v>1148</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -13947,13 +13948,13 @@
         <v>65</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -13970,7 +13971,7 @@
         <v>1040</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -13987,7 +13988,7 @@
         <v>1043</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -14004,7 +14005,7 @@
         <v>1161</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -14021,7 +14022,7 @@
         <v>1161</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -14038,7 +14039,7 @@
         <v>1166</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -14055,7 +14056,7 @@
         <v>1169</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -14072,7 +14073,7 @@
         <v>1166</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -14089,7 +14090,7 @@
         <v>1040</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -14106,7 +14107,7 @@
         <v>1043</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -14123,7 +14124,7 @@
         <v>1178</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -14140,7 +14141,7 @@
         <v>1181</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -14157,7 +14158,7 @@
         <v>1178</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -14174,7 +14175,7 @@
         <v>1040</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -14191,7 +14192,7 @@
         <v>1043</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -14208,7 +14209,7 @@
         <v>1190</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -14225,7 +14226,7 @@
         <v>1193</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -14242,7 +14243,7 @@
         <v>1190</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -14259,7 +14260,7 @@
         <v>1198</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -14276,7 +14277,7 @@
         <v>1043</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -14293,7 +14294,7 @@
         <v>1203</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -14310,7 +14311,7 @@
         <v>1206</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -14327,7 +14328,7 @@
         <v>1203</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -14344,7 +14345,7 @@
         <v>1043</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -14358,10 +14359,10 @@
         <v>1212</v>
       </c>
       <c r="E443" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F443" s="1" t="s">
         <v>1903</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -14378,7 +14379,7 @@
         <v>1216</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -14395,7 +14396,7 @@
         <v>1213</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -14412,7 +14413,7 @@
         <v>1040</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -14429,7 +14430,7 @@
         <v>1043</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -14446,7 +14447,7 @@
         <v>1225</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -14463,7 +14464,7 @@
         <v>1228</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -14480,7 +14481,7 @@
         <v>1225</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -14497,7 +14498,7 @@
         <v>1040</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -14514,7 +14515,7 @@
         <v>1043</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -14531,7 +14532,7 @@
         <v>1237</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -14548,7 +14549,7 @@
         <v>1240</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -14565,7 +14566,7 @@
         <v>1237</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -14576,13 +14577,13 @@
         <v>65</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -14599,7 +14600,7 @@
         <v>1040</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -14616,7 +14617,7 @@
         <v>1043</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -14633,7 +14634,7 @@
         <v>1250</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -14650,7 +14651,7 @@
         <v>1253</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -14667,7 +14668,7 @@
         <v>1250</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -14684,7 +14685,7 @@
         <v>1040</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -14701,7 +14702,7 @@
         <v>1043</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -14718,7 +14719,7 @@
         <v>1262</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -14735,7 +14736,7 @@
         <v>1265</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -14752,7 +14753,7 @@
         <v>1262</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -14769,7 +14770,7 @@
         <v>1040</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -14786,7 +14787,7 @@
         <v>1043</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -14803,7 +14804,7 @@
         <v>1274</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -14820,7 +14821,7 @@
         <v>1277</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -14837,7 +14838,7 @@
         <v>1274</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -14854,7 +14855,7 @@
         <v>1040</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -14871,7 +14872,7 @@
         <v>1043</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -14888,7 +14889,7 @@
         <v>1286</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -14905,7 +14906,7 @@
         <v>1289</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -14922,7 +14923,7 @@
         <v>1286</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -14939,7 +14940,7 @@
         <v>1040</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -14956,7 +14957,7 @@
         <v>1043</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -14973,7 +14974,7 @@
         <v>1298</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -14990,7 +14991,7 @@
         <v>1301</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -15007,7 +15008,7 @@
         <v>1304</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -15024,7 +15025,7 @@
         <v>1301</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -15041,7 +15042,7 @@
         <v>1040</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -15058,7 +15059,7 @@
         <v>1043</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -15075,7 +15076,7 @@
         <v>1313</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -15092,7 +15093,7 @@
         <v>1316</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -15109,7 +15110,7 @@
         <v>1313</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -15126,7 +15127,7 @@
         <v>1040</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -15143,7 +15144,7 @@
         <v>1043</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -15157,10 +15158,10 @@
         <v>1324</v>
       </c>
       <c r="E490" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F490" s="1" t="s">
         <v>1926</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -15177,7 +15178,7 @@
         <v>1328</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -15194,7 +15195,7 @@
         <v>1325</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -15211,7 +15212,7 @@
         <v>1043</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -15228,7 +15229,7 @@
         <v>1335</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -15245,7 +15246,7 @@
         <v>1338</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -15262,7 +15263,7 @@
         <v>1335</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -15279,7 +15280,7 @@
         <v>1043</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -15296,7 +15297,7 @@
         <v>1345</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -15313,7 +15314,7 @@
         <v>1348</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -15330,7 +15331,7 @@
         <v>1345</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -15341,13 +15342,13 @@
         <v>65</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -15364,7 +15365,7 @@
         <v>1043</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -15381,7 +15382,7 @@
         <v>1356</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -15398,7 +15399,7 @@
         <v>1359</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -15415,7 +15416,7 @@
         <v>1356</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -15432,7 +15433,7 @@
         <v>1043</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -15449,7 +15450,7 @@
         <v>1366</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -15463,10 +15464,10 @@
         <v>1368</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -15483,7 +15484,7 @@
         <v>1366</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -15500,7 +15501,7 @@
         <v>1043</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -15517,7 +15518,7 @@
         <v>1375</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -15531,10 +15532,10 @@
         <v>1377</v>
       </c>
       <c r="E512" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F512" s="1" t="s">
         <v>1932</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -15551,7 +15552,7 @@
         <v>1375</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -15568,7 +15569,7 @@
         <v>1043</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -15582,10 +15583,10 @@
         <v>1383</v>
       </c>
       <c r="E515" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F515" s="1" t="s">
         <v>1934</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -15602,7 +15603,7 @@
         <v>1387</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -15619,7 +15620,7 @@
         <v>1384</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -15636,7 +15637,7 @@
         <v>1043</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -15653,7 +15654,7 @@
         <v>1394</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -15670,7 +15671,7 @@
         <v>1397</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -15687,7 +15688,7 @@
         <v>1394</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -15704,7 +15705,7 @@
         <v>1043</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -15721,7 +15722,7 @@
         <v>1404</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -15738,7 +15739,7 @@
         <v>1407</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -15755,7 +15756,7 @@
         <v>1410</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -15772,7 +15773,7 @@
         <v>1413</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -15786,10 +15787,10 @@
         <v>1415</v>
       </c>
       <c r="E527" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F527" s="1" t="s">
         <v>1937</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -15806,7 +15807,7 @@
         <v>1418</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -15823,7 +15824,7 @@
         <v>1410</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -15840,7 +15841,7 @@
         <v>1413</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -15857,7 +15858,7 @@
         <v>1425</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -15874,7 +15875,7 @@
         <v>1428</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -15891,7 +15892,7 @@
         <v>1413</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -15905,10 +15906,10 @@
         <v>1432</v>
       </c>
       <c r="E534" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F534" s="1" t="s">
         <v>1941</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -15925,7 +15926,7 @@
         <v>1435</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -15942,7 +15943,7 @@
         <v>1413</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -15959,7 +15960,7 @@
         <v>1440</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -15976,7 +15977,7 @@
         <v>1443</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -15993,7 +15994,7 @@
         <v>1440</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -16010,7 +16011,7 @@
         <v>1198</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -16027,7 +16028,7 @@
         <v>1450</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -16041,13 +16042,13 @@
         <v>1452</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -16061,13 +16062,13 @@
         <v>1455</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -16081,13 +16082,13 @@
         <v>1458</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -16101,13 +16102,13 @@
         <v>1461</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -16121,7 +16122,7 @@
         <v>1465</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>1466</v>
@@ -16141,7 +16142,7 @@
         <v>1468</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E547" s="1" t="s">
         <v>1466</v>
@@ -16161,13 +16162,13 @@
         <v>1470</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -16181,13 +16182,13 @@
         <v>1473</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E549" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -16201,13 +16202,13 @@
         <v>1476</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E550" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -16221,13 +16222,13 @@
         <v>1479</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -16241,13 +16242,13 @@
         <v>1482</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E552" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -16261,13 +16262,13 @@
         <v>1484</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E553" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -16281,13 +16282,13 @@
         <v>1487</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E554" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -16301,13 +16302,13 @@
         <v>1490</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E555" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -16321,13 +16322,13 @@
         <v>1492</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -16341,13 +16342,13 @@
         <v>1495</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E557" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -16361,13 +16362,13 @@
         <v>1497</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E558" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -16381,13 +16382,13 @@
         <v>1500</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E559" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -16401,13 +16402,13 @@
         <v>1502</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E560" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -16421,13 +16422,13 @@
         <v>1505</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -16441,13 +16442,13 @@
         <v>1508</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E562" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F562" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="F562" s="1" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
@@ -16461,13 +16462,13 @@
         <v>1510</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
@@ -16481,13 +16482,13 @@
         <v>1512</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E564" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
@@ -16501,7 +16502,7 @@
         <v>1515</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>1516</v>
@@ -16521,7 +16522,7 @@
         <v>1518</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E566" s="1" t="s">
         <v>1516</v>
@@ -16541,13 +16542,13 @@
         <v>1520</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E567" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -16561,13 +16562,13 @@
         <v>1523</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -16581,13 +16582,13 @@
         <v>1526</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -16601,13 +16602,13 @@
         <v>1528</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E570" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
@@ -16621,7 +16622,7 @@
         <v>1530</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E571" s="1" t="s">
         <v>1531</v>
@@ -16641,7 +16642,7 @@
         <v>1533</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E572" s="1" t="s">
         <v>1531</v>
@@ -16661,7 +16662,7 @@
         <v>1535</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E573" s="1" t="s">
         <v>1536</v>
@@ -16681,13 +16682,13 @@
         <v>1538</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E574" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
@@ -16701,7 +16702,7 @@
         <v>1541</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E575" s="1" t="s">
         <v>1536</v>
@@ -16715,13 +16716,13 @@
         <v>65</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="577" spans="2:6" x14ac:dyDescent="0.3">
@@ -16729,13 +16730,13 @@
         <v>65</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="578" spans="2:6" x14ac:dyDescent="0.3">
@@ -16743,13 +16744,13 @@
         <v>65</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="579" spans="2:6" x14ac:dyDescent="0.3">
@@ -16757,7 +16758,7 @@
         <v>65</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E579" s="1" t="s">
         <v>133</v>
@@ -16771,13 +16772,13 @@
         <v>65</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E580" s="1" t="s">
         <v>770</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="581" spans="2:6" x14ac:dyDescent="0.3">
@@ -16785,13 +16786,13 @@
         <v>65</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E581" s="1" t="s">
         <v>776</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="582" spans="2:6" x14ac:dyDescent="0.3">
@@ -16799,13 +16800,13 @@
         <v>65</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E582" s="1" t="s">
         <v>804</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="583" spans="2:6" x14ac:dyDescent="0.3">
@@ -16813,13 +16814,13 @@
         <v>65</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="584" spans="2:6" x14ac:dyDescent="0.3">
@@ -16827,13 +16828,13 @@
         <v>65</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="585" spans="2:6" x14ac:dyDescent="0.3">
@@ -16841,13 +16842,13 @@
         <v>65</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="586" spans="2:6" x14ac:dyDescent="0.3">
@@ -16855,13 +16856,13 @@
         <v>65</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="587" spans="2:6" x14ac:dyDescent="0.3">
@@ -16869,13 +16870,13 @@
         <v>65</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="588" spans="2:6" x14ac:dyDescent="0.3">
@@ -16883,13 +16884,13 @@
         <v>65</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="589" spans="2:6" x14ac:dyDescent="0.3">
@@ -16897,13 +16898,13 @@
         <v>65</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="590" spans="2:6" x14ac:dyDescent="0.3">
@@ -16911,13 +16912,13 @@
         <v>65</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="591" spans="2:6" x14ac:dyDescent="0.3">
@@ -16925,13 +16926,13 @@
         <v>65</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="592" spans="2:6" x14ac:dyDescent="0.3">
@@ -16939,13 +16940,13 @@
         <v>65</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="593" spans="2:6" x14ac:dyDescent="0.3">
@@ -16953,13 +16954,13 @@
         <v>17</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="594" spans="2:6" x14ac:dyDescent="0.3">
@@ -16967,13 +16968,13 @@
         <v>17</v>
       </c>
       <c r="C594" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E594" s="1" t="s">
         <v>2077</v>
       </c>
-      <c r="E594" s="1" t="s">
-        <v>2078</v>
-      </c>
       <c r="F594" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="595" spans="2:6" x14ac:dyDescent="0.3">
@@ -16981,13 +16982,13 @@
         <v>17</v>
       </c>
       <c r="C595" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E595" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="E595" s="1" t="s">
-        <v>2080</v>
-      </c>
       <c r="F595" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="596" spans="2:6" x14ac:dyDescent="0.3">
@@ -16995,13 +16996,13 @@
         <v>17</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
   </sheetData>
@@ -17022,7 +17023,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="K1" t="str">
         <f>RIGHT(A1, LEN(A1)-FIND(" '",A1)-LEN(" '")+1)</f>
@@ -17035,7 +17036,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K51" si="0">RIGHT(A2, LEN(A2)-FIND(" '",A2)-LEN(" '")+1)</f>
@@ -17048,7 +17049,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="0"/>
@@ -17061,7 +17062,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
@@ -17074,7 +17075,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -17087,7 +17088,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -17100,7 +17101,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -17113,7 +17114,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -17126,7 +17127,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -17139,7 +17140,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -17152,7 +17153,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -17165,7 +17166,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -17178,7 +17179,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -17191,7 +17192,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -17204,7 +17205,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -17217,7 +17218,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -17230,7 +17231,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -17243,7 +17244,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -17256,7 +17257,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -17269,7 +17270,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -17282,7 +17283,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -17295,7 +17296,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -17308,7 +17309,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -17321,7 +17322,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -17334,7 +17335,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -17347,7 +17348,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -17360,7 +17361,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -17373,7 +17374,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -17386,7 +17387,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -17399,7 +17400,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -17412,7 +17413,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -17425,7 +17426,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -17438,7 +17439,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -17451,7 +17452,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -17464,7 +17465,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -17477,7 +17478,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
@@ -17490,7 +17491,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
@@ -17503,7 +17504,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
@@ -17516,7 +17517,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
@@ -17529,7 +17530,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
@@ -17542,7 +17543,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
@@ -17555,7 +17556,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
@@ -17568,7 +17569,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
@@ -17581,7 +17582,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
@@ -17594,7 +17595,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
@@ -17607,7 +17608,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
@@ -17620,7 +17621,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
@@ -17633,7 +17634,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
@@ -17646,7 +17647,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
@@ -17659,7 +17660,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
@@ -17672,7 +17673,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
